--- a/data/trans_orig/P64DS1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64DS1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD1E8D9A-A801-473A-9729-20347DB27DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89CE0C6D-DEDF-4AB9-945B-5C43DDA0E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9EB6249D-6365-4F56-B238-A00FD79D1432}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF51372C-5E32-4C2D-8F61-77802CC131D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="286">
   <si>
     <t>Población según el método de desplazamiento que utiliza para ir al trabajo / respuesta 1 en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -83,826 +83,814 @@
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>En otros medios</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>En transporte público (autobús, metro, tren)</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>En vehículo particular (automóvil, moto)</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>En bicicleta</t>
+  </si>
+  <si>
+    <t>Andando</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>En otros medios</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>En transporte público (autobús, metro, tren)</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>En vehículo particular (automóvil, moto)</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>En bicicleta</t>
-  </si>
-  <si>
-    <t>Andando</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>0,03%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>2,18%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1317,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271BA9D7-4884-4674-9A65-9052C751C12B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C9760D-0494-457B-AC18-4745120A721E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2037,10 +2025,10 @@
         <v>80</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2043,13 @@
         <v>79110</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>132</v>
@@ -2070,13 +2058,13 @@
         <v>83732</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -2085,13 +2073,13 @@
         <v>162841</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,7 +2135,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2159,13 +2147,13 @@
         <v>14560</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -2174,13 +2162,13 @@
         <v>10714</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -2189,13 +2177,13 @@
         <v>25274</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2198,13 @@
         <v>4762</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2243,10 +2231,10 @@
         <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2249,13 @@
         <v>9492</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2276,13 +2264,13 @@
         <v>13715</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -2291,13 +2279,13 @@
         <v>23207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2300,13 @@
         <v>464948</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H21" s="7">
         <v>305</v>
@@ -2327,13 +2315,13 @@
         <v>232602</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
         <v>670</v>
@@ -2342,13 +2330,13 @@
         <v>697549</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2351,13 @@
         <v>5919</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2378,13 +2366,13 @@
         <v>944</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -2393,13 +2381,13 @@
         <v>6863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2402,13 @@
         <v>133100</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>254</v>
@@ -2429,13 +2417,13 @@
         <v>184438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>383</v>
@@ -2444,13 +2432,13 @@
         <v>317538</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,7 +2494,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2518,13 +2506,13 @@
         <v>9472</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2533,13 +2521,13 @@
         <v>8667</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2548,13 +2536,13 @@
         <v>18139</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2557,13 @@
         <v>2499</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2584,13 +2572,13 @@
         <v>160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2599,13 +2587,13 @@
         <v>2658</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2608,13 @@
         <v>6970</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -2635,13 +2623,13 @@
         <v>11625</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M27" s="7">
         <v>18</v>
@@ -2650,10 +2638,10 @@
         <v>18594</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>164</v>
@@ -2725,7 +2713,7 @@
         <v>174</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>175</v>
@@ -2737,13 +2725,13 @@
         <v>1317</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2752,13 +2740,13 @@
         <v>5055</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2761,13 @@
         <v>59200</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -2788,13 +2776,13 @@
         <v>81264</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M30" s="7">
         <v>169</v>
@@ -2803,13 +2791,13 @@
         <v>140464</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2853,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2877,13 +2865,13 @@
         <v>39889</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>34</v>
@@ -2892,13 +2880,13 @@
         <v>23557</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -2907,13 +2895,13 @@
         <v>63445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>199</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,10 +2919,10 @@
         <v>200</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="H33" s="7">
         <v>6</v>
@@ -2946,10 +2934,10 @@
         <v>202</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2958,13 +2946,13 @@
         <v>6743</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,13 +2967,13 @@
         <v>35320</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H34" s="7">
         <v>57</v>
@@ -2994,13 +2982,13 @@
         <v>45363</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>93</v>
@@ -3009,13 +2997,13 @@
         <v>80683</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3018,13 @@
         <v>274956</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>254</v>
@@ -3045,13 +3033,13 @@
         <v>189525</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
         <v>520</v>
@@ -3060,13 +3048,13 @@
         <v>464481</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3069,13 @@
         <v>15103</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -3096,13 +3084,13 @@
         <v>22602</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -3111,13 +3099,13 @@
         <v>37706</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3120,13 @@
         <v>126427</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>238</v>
@@ -3147,13 +3135,13 @@
         <v>175294</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>363</v>
@@ -3162,13 +3150,13 @@
         <v>301721</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3224,13 @@
         <v>74390</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H39" s="7">
         <v>81</v>
@@ -3251,13 +3239,13 @@
         <v>55735</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M39" s="7">
         <v>148</v>
@@ -3266,13 +3254,13 @@
         <v>130125</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3275,13 @@
         <v>10126</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -3305,10 +3293,10 @@
         <v>104</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
         <v>19</v>
@@ -3317,13 +3305,13 @@
         <v>14914</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3326,13 @@
         <v>51782</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H41" s="7">
         <v>91</v>
@@ -3353,13 +3341,13 @@
         <v>72255</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M41" s="7">
         <v>142</v>
@@ -3368,13 +3356,13 @@
         <v>124036</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3377,13 @@
         <v>1268033</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H42" s="7">
         <v>1056</v>
@@ -3404,13 +3392,13 @@
         <v>797226</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M42" s="7">
         <v>2170</v>
@@ -3419,10 +3407,10 @@
         <v>2065259</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>75</v>
@@ -3440,13 +3428,13 @@
         <v>25815</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>272</v>
+        <v>126</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H43" s="7">
         <v>20</v>
@@ -3455,13 +3443,13 @@
         <v>24863</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M43" s="7">
         <v>48</v>
@@ -3470,13 +3458,13 @@
         <v>50678</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3479,13 @@
         <v>407149</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H44" s="7">
         <v>778</v>
@@ -3506,13 +3494,13 @@
         <v>546386</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M44" s="7">
         <v>1179</v>
@@ -3521,13 +3509,13 @@
         <v>953535</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3571,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P64DS1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64DS1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89CE0C6D-DEDF-4AB9-945B-5C43DDA0E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1CAEC24-378E-42B1-B401-6350ACAE2EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF51372C-5E32-4C2D-8F61-77802CC131D3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4C5628F-335D-4344-88BA-A743D7735E1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No realiza estos trayectos</t>
@@ -188,7 +188,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,58%</t>
@@ -311,7 +311,7 @@
     <t>35,24%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>2,3%</t>
@@ -467,7 +467,7 @@
     <t>32,81%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,58%</t>
@@ -1305,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C9760D-0494-457B-AC18-4745120A721E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03241F45-4D84-4EF4-88C8-130B12A94104}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
